--- a/biology/Médecine/Plexus_nerveux_carotidien_interne/Plexus_nerveux_carotidien_interne.xlsx
+++ b/biology/Médecine/Plexus_nerveux_carotidien_interne/Plexus_nerveux_carotidien_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,20 +490,22 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus nerveux carotidien interne est situé sur le côté latéral de l'artère carotide interne.
 Dans le plexus il existe parfois la surface inférieure de l'artère un petit gonflement ganglionnaire : le ganglion carotidien.
 Il reçoit les fibres parasympathiques post-ganglionnaires en provenance du ganglion cervical supérieur qui remontent le long des parois de l'artère carotide interne.
 Il reçoit également des fibres sympathiques :
 du ganglion ciliaire ;
-du ganglion ptérygopalatin : certaines des fibres du plexus carotidien interne convergent pour former le nerf pétreux profond[1] ;
+du ganglion ptérygopalatin : certaines des fibres du plexus carotidien interne convergent pour former le nerf pétreux profond ;
 du ganglion submandibulaire ;
 du ganglion sublingual ;
 du ganglion otique ;
 des nerfs carotico-tympaniques via le nerf tympanique.
 Il communique avec le ganglion trijumeau et le nerf abducens.
-Ces fibres se répartissent ensuite dans les structures profondes, qui comprennent le muscle tarsal supérieur et le muscle dilatateur de la pupille[2].
+Ces fibres se répartissent ensuite dans les structures profondes, qui comprennent le muscle tarsal supérieur et le muscle dilatateur de la pupille.
 Il distribue des fibres à la paroi de l'artère carotide interne
 </t>
         </is>
